--- a/exampleProblems/ch9_095/ch9_095.xlsx
+++ b/exampleProblems/ch9_095/ch9_095.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vsmw51/Library/CloudStorage/OneDrive-DurhamUniversity/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_095/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_095/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC418B4E-6BD0-6442-97FA-90D1C6E95527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{AC418B4E-6BD0-6442-97FA-90D1C6E95527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E7C9397-26E1-4399-B79F-DC831CEAC50E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20820" windowHeight="15040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="1440" windowWidth="23880" windowHeight="13620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -197,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,12 +626,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -639,7 +639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -663,12 +663,12 @@
       <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -724,7 +724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -753,7 +753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -782,7 +782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -811,7 +811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -869,7 +869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -898,7 +898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -927,7 +927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -956,7 +956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -978,12 +978,12 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -1016,7 +1016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>55.9</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="1">
         <v>26.73</v>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>35.1</v>
       </c>
       <c r="D8" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="E8" s="1">
         <v>50.88</v>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1237,7 +1237,7 @@
       <c r="I9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1249,7 +1249,7 @@
       <c r="I10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1261,27 +1261,27 @@
       <c r="I11" s="8"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J15" s="1"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="10:10">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="10:10">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J18" s="1"/>
     </row>
   </sheetData>
@@ -1298,9 +1298,9 @@
       <selection activeCell="J2" sqref="J2:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -1344,7 +1344,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1443,7 +1443,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1476,7 +1476,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1491,7 +1491,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1506,7 +1506,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1521,7 +1521,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1536,7 +1536,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1551,7 +1551,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1566,7 +1566,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1581,7 +1581,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1596,7 +1596,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1611,7 +1611,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1626,7 +1626,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1641,7 +1641,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1656,7 +1656,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1680,7 +1680,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1691,7 +1691,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1702,7 +1702,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1713,7 +1713,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1724,7 +1724,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1735,7 +1735,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1746,7 +1746,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1757,7 +1757,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1768,7 +1768,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1779,7 +1779,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1790,7 +1790,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1801,7 +1801,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1812,7 +1812,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1823,7 +1823,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1834,7 +1834,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1845,7 +1845,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1856,7 +1856,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1881,9 +1881,9 @@
       <selection activeCell="F2" sqref="F2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -1927,7 +1927,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1965,7 +1965,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2022,7 +2022,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2041,7 +2041,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2060,7 +2060,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2117,7 +2117,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2136,7 +2136,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2212,7 +2212,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2231,7 +2231,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2269,7 +2269,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2282,7 +2282,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2295,7 +2295,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2308,7 +2308,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2321,7 +2321,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2334,7 +2334,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2347,7 +2347,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2360,7 +2360,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2373,7 +2373,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2386,7 +2386,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2399,7 +2399,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2412,7 +2412,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2425,7 +2425,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2438,7 +2438,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2451,7 +2451,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2464,7 +2464,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2477,7 +2477,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2490,7 +2490,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2503,7 +2503,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2516,7 +2516,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2529,7 +2529,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2542,7 +2542,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2555,7 +2555,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2568,7 +2568,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2581,7 +2581,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2594,7 +2594,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2621,9 +2621,9 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="24">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -2669,9 +2669,9 @@
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2698,7 +2698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2723,7 +2723,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2748,7 +2748,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2773,7 +2773,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2798,7 +2798,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2823,7 +2823,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2848,7 +2848,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2873,7 +2873,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2898,7 +2898,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2923,7 +2923,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2948,7 +2948,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2959,7 +2959,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2970,7 +2970,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2981,7 +2981,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -3006,9 +3006,9 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -3035,7 +3035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3060,7 +3060,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3085,7 +3085,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3135,7 +3135,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3160,7 +3160,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3185,7 +3185,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3210,7 +3210,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3260,7 +3260,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3277,6 +3277,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3493,36 +3508,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3545,9 +3534,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>